--- a/dataset_v1/task_sheet_answers/SmallBalanceSheet/4_SmallBalanceSheet/4_SmallBalanceSheet_gt1.xlsx
+++ b/dataset_v1/task_sheet_answers/SmallBalanceSheet/4_SmallBalanceSheet/4_SmallBalanceSheet_gt1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12360" windowWidth="11520" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17,9 +17,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt formatCode="0.00_);[Red]\(0.00\)" numFmtId="164"/>
+    <numFmt formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ " numFmtId="165"/>
+    <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" numFmtId="166"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -387,82 +387,82 @@
     </border>
   </borders>
   <cellStyleXfs count="47">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="12" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="13" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0"/>
+    <xf borderId="0" fillId="16" fontId="6" numFmtId="0"/>
+    <xf borderId="1" fillId="17" fontId="7" numFmtId="0"/>
+    <xf borderId="2" fillId="18" fontId="8" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="166"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="19" fontId="10" numFmtId="0"/>
+    <xf borderId="3" fillId="0" fontId="11" numFmtId="0"/>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0"/>
+    <xf borderId="5" fillId="0" fontId="13" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf borderId="1" fillId="11" fontId="14" numFmtId="0"/>
+    <xf borderId="6" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0"/>
+    <xf borderId="7" fillId="5" fontId="3" numFmtId="0"/>
+    <xf borderId="8" fillId="17" fontId="17" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0"/>
+    <xf borderId="9" fillId="0" fontId="19" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 3" xfId="1"/>
     <cellStyle name="20% - Accent1 2" xfId="2"/>
     <cellStyle name="20% - Accent2 2" xfId="3"/>
@@ -498,7 +498,7 @@
     <cellStyle name="Heading 2 2" xfId="33"/>
     <cellStyle name="Heading 3 2" xfId="34"/>
     <cellStyle name="Heading 4 2" xfId="35"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="36"/>
     <cellStyle name="Input 2" xfId="37"/>
     <cellStyle name="Linked Cell 2" xfId="38"/>
     <cellStyle name="Neutral 2" xfId="39"/>
@@ -510,7 +510,7 @@
     <cellStyle name="Warning Text 2" xfId="45"/>
     <cellStyle name="Normal 2" xfId="46"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -999,7 +999,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1017,15 +1017,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="12.88671875" customWidth="1" style="4" min="1" max="1"/>
-    <col width="18.109375" customWidth="1" style="4" min="2" max="2"/>
-    <col width="15.21875" customWidth="1" style="4" min="3" max="3"/>
-    <col width="17.21875" customWidth="1" style="4" min="4" max="4"/>
-    <col width="11.44140625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="14.33203125" customWidth="1" style="4" min="6" max="6"/>
-    <col width="21.44140625" customWidth="1" style="4" min="7" max="7"/>
-    <col width="15.5546875" customWidth="1" style="4" min="8" max="8"/>
-    <col width="27" customWidth="1" style="4" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" style="4" width="12.88671875"/>
+    <col customWidth="1" max="2" min="2" style="4" width="18.109375"/>
+    <col customWidth="1" max="3" min="3" style="4" width="15.21875"/>
+    <col customWidth="1" max="4" min="4" style="4" width="17.21875"/>
+    <col customWidth="1" max="5" min="5" style="4" width="11.44140625"/>
+    <col customWidth="1" max="6" min="6" style="4" width="14.33203125"/>
+    <col customWidth="1" max="7" min="7" style="4" width="21.44140625"/>
+    <col customWidth="1" max="8" min="8" style="4" width="15.5546875"/>
+    <col customWidth="1" max="9" min="9" style="4" width="27"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1226,6 +1226,6 @@
       <c r="C10" s="6" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>